--- a/premLeague.xlsx
+++ b/premLeague.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E2" t="n">
         <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>24</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -465,25 +465,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" t="n">
         <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" t="n">
         <v>2.9</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="N2" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
         <v>0.6</v>
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
@@ -576,16 +576,16 @@
         <v>28</v>
       </c>
       <c r="K4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="M4" t="n">
         <v>2.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
         <v>12</v>
@@ -615,16 +615,16 @@
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
         <v>43</v>
       </c>
       <c r="I5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
         <v>41</v>
@@ -633,7 +633,7 @@
         <v>1.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="N5" t="n">
         <v>1.7</v>
@@ -653,44 +653,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sheff Utd</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>43</v>
+      </c>
+      <c r="I6" t="n">
+        <v>34</v>
+      </c>
+      <c r="J6" t="n">
         <v>9</v>
       </c>
-      <c r="G6" t="n">
-        <v>7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>28</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
       <c r="K6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L6" t="n">
         <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7">
@@ -704,32 +704,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Sheff Utd</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
         <v>7</v>
       </c>
-      <c r="G7" t="n">
-        <v>8</v>
-      </c>
       <c r="H7" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L7" t="n">
         <v>1.5</v>
@@ -738,10 +738,10 @@
         <v>1.2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8">
@@ -755,7 +755,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -765,34 +765,34 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I8" t="n">
+        <v>29</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9</v>
+      </c>
+      <c r="K8" t="n">
         <v>38</v>
       </c>
-      <c r="J8" t="n">
-        <v>-4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>36</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="N8" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9">
@@ -806,41 +806,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
+        <v>35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>32</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
         <v>36</v>
-      </c>
-      <c r="I9" t="n">
-        <v>29</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>35</v>
       </c>
       <c r="L9" t="n">
         <v>1.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
@@ -857,44 +857,44 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="K10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="N10" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
@@ -924,28 +924,28 @@
         <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I11" t="n">
         <v>34</v>
       </c>
       <c r="J11" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L11" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.4</v>
       </c>
     </row>
     <row r="12">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="H12" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K12" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N12" t="n">
         <v>1.2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -1010,29 +1010,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J13" t="n">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="K13" t="n">
         <v>31</v>
@@ -1044,10 +1044,10 @@
         <v>0.7</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14">
@@ -1061,29 +1061,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I14" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J14" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="K14" t="n">
         <v>31</v>
@@ -1092,13 +1092,13 @@
         <v>1.2</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="N14" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1278,16 +1278,16 @@
         <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I18" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J18" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="K18" t="n">
         <v>25</v>
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1431,16 +1431,16 @@
         <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" t="n">
         <v>24</v>
       </c>
       <c r="I21" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21" t="n">
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="K21" t="n">
         <v>18</v>
@@ -1452,10 +1452,10 @@
         <v>0.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
